--- a/formato de orden de producción.xlsx
+++ b/formato de orden de producción.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xl3_c\Desktop\Workspace\Services\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB536C14-CB60-418A-8B61-AAA197895885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="3470" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -239,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1174,24 +1168,417 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,403 +1621,13 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1665,7 +1662,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="BERMOR_color-01.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDB6B58-88D1-4F74-9213-2DB327656CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DDB6B58-88D1-4F74-9213-2DB327656CF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect l="11367" t="32286" r="13162" b="35610"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1736,7 +1733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1768,27 +1765,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1820,24 +1799,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2013,14 +1974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
@@ -2038,103 +1999,103 @@
     <col min="22" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" ht="15" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="56" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="57"/>
-    </row>
-    <row r="2" spans="2:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="188"/>
+    </row>
+    <row r="2" spans="2:23" ht="11.25" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="58" t="s">
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="190"/>
+    </row>
+    <row r="3" spans="2:23" ht="19.5" customHeight="1">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="60" t="s">
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="61"/>
-    </row>
-    <row r="4" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="192"/>
+    </row>
+    <row r="4" spans="2:23" ht="3" customHeight="1">
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="61"/>
-    </row>
-    <row r="5" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="192"/>
+    </row>
+    <row r="5" spans="2:23" ht="3" customHeight="1">
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2156,7 +2117,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" ht="3" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2178,31 +2139,31 @@
       <c r="T6" s="8"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" ht="15" customHeight="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="194"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="15" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2224,41 +2185,41 @@
       <c r="T8" s="11"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="2:23" ht="16.5" customHeight="1">
+      <c r="B9" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="196"/>
+      <c r="D9" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66">
+      <c r="M9" s="196"/>
+      <c r="N9" s="197">
         <v>43721</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="65" t="s">
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="47">
+      <c r="R9" s="196"/>
+      <c r="S9" s="181">
         <v>3470</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-    </row>
-    <row r="10" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="181"/>
+      <c r="U9" s="182"/>
+    </row>
+    <row r="10" spans="2:23" ht="3" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2282,33 +2243,33 @@
       <c r="T10" s="5"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:23" ht="20.25" customHeight="1">
+      <c r="B11" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="52" t="s">
+      <c r="O11" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="53"/>
-    </row>
-    <row r="12" spans="2:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="146"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="184"/>
+    </row>
+    <row r="12" spans="2:23" ht="3.75" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2330,7 +2291,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="18" customHeight="1">
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2343,16 +2304,16 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="18" customHeight="1">
       <c r="B14" s="19"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -2374,7 +2335,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="2:23" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="3.75" customHeight="1" thickBot="1">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2396,168 +2357,168 @@
       <c r="T15" s="5"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="84" t="s">
+    <row r="16" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B16" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86" t="s">
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87" t="s">
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
+      <c r="M16" s="180"/>
+      <c r="N16" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="67" t="s">
+      <c r="O16" s="177"/>
+      <c r="P16" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="67" t="s">
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="68"/>
-      <c r="U16" s="69"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="165"/>
       <c r="W16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="2:21" ht="30.75" customHeight="1">
+      <c r="B17" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73" t="s">
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76" t="s">
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="78" t="s">
+      <c r="M17" s="61"/>
+      <c r="N17" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80" t="s">
+      <c r="O17" s="151"/>
+      <c r="P17" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="75" t="s">
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="82"/>
-      <c r="U17" s="83"/>
-    </row>
-    <row r="18" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100" t="s">
+      <c r="T17" s="174"/>
+      <c r="U17" s="175"/>
+    </row>
+    <row r="18" spans="2:21" ht="27" customHeight="1">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="90" t="s">
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="90"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="102"/>
-    </row>
-    <row r="19" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100" t="s">
+      <c r="K18" s="148"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="162"/>
+    </row>
+    <row r="19" spans="2:21" ht="18.75" customHeight="1">
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="90" t="s">
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90" t="s">
+      <c r="K19" s="148"/>
+      <c r="L19" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90" t="s">
+      <c r="M19" s="148"/>
+      <c r="N19" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90" t="s">
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="102"/>
-    </row>
-    <row r="20" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="89" t="s">
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="162"/>
+    </row>
+    <row r="20" spans="2:21" ht="40.5" customHeight="1">
+      <c r="B20" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91" t="s">
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="92" t="s">
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="92" t="s">
+      <c r="M20" s="153"/>
+      <c r="N20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="97"/>
-    </row>
-    <row r="21" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="157"/>
+    </row>
+    <row r="21" spans="2:21" ht="9" customHeight="1" thickBot="1">
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2579,241 +2540,241 @@
       <c r="T21" s="25"/>
       <c r="U21" s="26"/>
     </row>
-    <row r="22" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="120" t="s">
+    <row r="22" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="122"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="123" t="s">
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="136"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="125"/>
-    </row>
-    <row r="24" spans="2:21" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="126" t="s">
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
+    </row>
+    <row r="24" spans="2:21" ht="60" customHeight="1" thickBot="1">
+      <c r="B24" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129" t="s">
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="131"/>
-    </row>
-    <row r="25" spans="2:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="144"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="145"/>
+    </row>
+    <row r="25" spans="2:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="B25" s="4"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="146"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="2:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="103" t="s">
+    <row r="26" spans="2:21" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B26" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="105"/>
-    </row>
-    <row r="27" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="106" t="s">
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="126"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B27" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108" t="s">
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="109" t="s">
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="111"/>
-    </row>
-    <row r="28" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="112" t="s">
+      <c r="S27" s="130"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="132"/>
+    </row>
+    <row r="28" spans="2:21" ht="25.5" customHeight="1">
+      <c r="B28" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="117" t="s">
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="119"/>
-    </row>
-    <row r="29" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="112" t="s">
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="121"/>
+    </row>
+    <row r="29" spans="2:21" ht="25.5" customHeight="1">
+      <c r="B29" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114" t="s">
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="117" t="s">
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="119"/>
-    </row>
-    <row r="30" spans="2:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="140" t="s">
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="121"/>
+    </row>
+    <row r="30" spans="2:21" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B30" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="114" t="s">
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="117" t="s">
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="119"/>
-    </row>
-    <row r="31" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="121"/>
+    </row>
+    <row r="31" spans="2:21" ht="7.5" customHeight="1">
       <c r="B31" s="4"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -2835,627 +2796,627 @@
       <c r="T31" s="29"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B32" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="132" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="133"/>
-    </row>
-    <row r="33" spans="2:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="134" t="s">
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="108"/>
+    </row>
+    <row r="33" spans="2:21" ht="33.75" customHeight="1">
+      <c r="B33" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
       <c r="U33" s="31"/>
     </row>
-    <row r="34" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="138" t="s">
+      <c r="E34" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
-      <c r="O34" s="139" t="s">
+      <c r="O34" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
       <c r="U34" s="35"/>
     </row>
-    <row r="35" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="142" t="s">
+    <row r="35" spans="2:21" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B35" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="144"/>
-    </row>
-    <row r="36" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="145" t="s">
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="84"/>
+    </row>
+    <row r="36" spans="2:21" ht="17.25" thickBot="1">
+      <c r="B36" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
-      <c r="R36" s="146"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="147"/>
-    </row>
-    <row r="37" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="148" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="87"/>
+    </row>
+    <row r="37" spans="2:21" ht="24" customHeight="1">
+      <c r="B37" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="152" t="s">
+      <c r="D37" s="90"/>
+      <c r="E37" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152" t="s">
+      <c r="F37" s="92"/>
+      <c r="G37" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="152"/>
-      <c r="I37" s="154" t="s">
+      <c r="H37" s="92"/>
+      <c r="I37" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="155"/>
-      <c r="K37" s="158" t="s">
+      <c r="J37" s="95"/>
+      <c r="K37" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="159"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="159"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="152" t="s">
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="R37" s="161" t="s">
+      <c r="R37" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="161"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="162"/>
-    </row>
-    <row r="38" spans="2:21" s="36" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="149"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="178" t="s">
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="102"/>
+    </row>
+    <row r="38" spans="2:21" s="36" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B38" s="89"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="179"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="178" t="s">
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="179"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="164"/>
-    </row>
-    <row r="39" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="104"/>
+    </row>
+    <row r="39" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="185"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="187"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="184"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="77"/>
       <c r="Q39" s="38"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="165"/>
-      <c r="U39" s="166"/>
-    </row>
-    <row r="40" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="70"/>
+    </row>
+    <row r="40" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B40" s="40"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="175"/>
-      <c r="P40" s="171"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="67"/>
       <c r="Q40" s="41"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
-      <c r="U40" s="177"/>
-    </row>
-    <row r="41" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="57"/>
+    </row>
+    <row r="41" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B41" s="42"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="171"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="67"/>
       <c r="Q41" s="41"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
-      <c r="U41" s="177"/>
-    </row>
-    <row r="42" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="57"/>
+    </row>
+    <row r="42" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B42" s="43"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="173"/>
-      <c r="M42" s="174"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="175"/>
-      <c r="P42" s="171"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
       <c r="Q42" s="41"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="176"/>
-      <c r="U42" s="177"/>
-    </row>
-    <row r="43" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B43" s="42"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="171"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
       <c r="Q43" s="41"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
-      <c r="U43" s="177"/>
-    </row>
-    <row r="44" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B44" s="42"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="174"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="175"/>
-      <c r="P44" s="171"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="67"/>
       <c r="Q44" s="41"/>
-      <c r="R44" s="176"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
-      <c r="U44" s="177"/>
-    </row>
-    <row r="45" spans="2:21" s="39" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="189" t="s">
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="57"/>
+    </row>
+    <row r="45" spans="2:21" s="39" customFormat="1" ht="81" customHeight="1" thickBot="1">
+      <c r="B45" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="190" t="s">
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="190"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="192"/>
-      <c r="N45" s="192"/>
-      <c r="O45" s="193"/>
-      <c r="P45" s="194" t="s">
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Q45" s="195"/>
-      <c r="R45" s="195"/>
-      <c r="S45" s="196"/>
-      <c r="T45" s="196"/>
-      <c r="U45" s="197"/>
-    </row>
-    <row r="46" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="142" t="s">
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="55"/>
+    </row>
+    <row r="46" spans="2:21" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B46" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
-      <c r="P46" s="143"/>
-      <c r="Q46" s="143"/>
-      <c r="R46" s="143"/>
-      <c r="S46" s="143"/>
-      <c r="T46" s="143"/>
-      <c r="U46" s="144"/>
-    </row>
-    <row r="47" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="145" t="s">
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="84"/>
+    </row>
+    <row r="47" spans="2:21" ht="17.25" thickBot="1">
+      <c r="B47" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="146"/>
-      <c r="R47" s="146"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="146"/>
-      <c r="U47" s="147"/>
-    </row>
-    <row r="48" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="148" t="s">
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="87"/>
+    </row>
+    <row r="48" spans="2:21" ht="24" customHeight="1">
+      <c r="B48" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="150" t="s">
+      <c r="C48" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="150"/>
-      <c r="E48" s="152" t="s">
+      <c r="D48" s="90"/>
+      <c r="E48" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152" t="s">
+      <c r="F48" s="92"/>
+      <c r="G48" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="152"/>
-      <c r="I48" s="154" t="s">
+      <c r="H48" s="92"/>
+      <c r="I48" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="J48" s="155"/>
-      <c r="K48" s="158" t="s">
+      <c r="J48" s="95"/>
+      <c r="K48" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="159"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="159"/>
-      <c r="O48" s="159"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="152" t="s">
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="R48" s="161" t="s">
+      <c r="R48" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="S48" s="161"/>
-      <c r="T48" s="161"/>
-      <c r="U48" s="162"/>
-    </row>
-    <row r="49" spans="2:21" s="36" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="149"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="178" t="s">
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="102"/>
+    </row>
+    <row r="49" spans="2:21" s="36" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B49" s="89"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="L49" s="179"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="178" t="s">
+      <c r="L49" s="72"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="O49" s="179"/>
-      <c r="P49" s="180"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="163"/>
-      <c r="S49" s="163"/>
-      <c r="T49" s="163"/>
-      <c r="U49" s="164"/>
-    </row>
-    <row r="50" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="72"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="103"/>
+      <c r="U49" s="104"/>
+    </row>
+    <row r="50" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B50" s="37"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="182"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="182"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="184"/>
-      <c r="K50" s="185"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="187"/>
-      <c r="N50" s="183"/>
-      <c r="O50" s="188"/>
-      <c r="P50" s="184"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="77"/>
       <c r="Q50" s="38"/>
-      <c r="R50" s="165"/>
-      <c r="S50" s="165"/>
-      <c r="T50" s="165"/>
-      <c r="U50" s="166"/>
-    </row>
-    <row r="51" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="70"/>
+    </row>
+    <row r="51" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B51" s="40"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="172"/>
-      <c r="L51" s="173"/>
-      <c r="M51" s="174"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="175"/>
-      <c r="P51" s="171"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="67"/>
       <c r="Q51" s="41"/>
-      <c r="R51" s="176"/>
-      <c r="S51" s="176"/>
-      <c r="T51" s="176"/>
-      <c r="U51" s="177"/>
-    </row>
-    <row r="52" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="57"/>
+    </row>
+    <row r="52" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B52" s="42"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="172"/>
-      <c r="L52" s="173"/>
-      <c r="M52" s="174"/>
-      <c r="N52" s="170"/>
-      <c r="O52" s="175"/>
-      <c r="P52" s="171"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="67"/>
       <c r="Q52" s="41"/>
-      <c r="R52" s="176"/>
-      <c r="S52" s="176"/>
-      <c r="T52" s="176"/>
-      <c r="U52" s="177"/>
-    </row>
-    <row r="53" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="57"/>
+    </row>
+    <row r="53" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B53" s="43"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="173"/>
-      <c r="M53" s="174"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="175"/>
-      <c r="P53" s="171"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="67"/>
       <c r="Q53" s="41"/>
-      <c r="R53" s="176"/>
-      <c r="S53" s="176"/>
-      <c r="T53" s="176"/>
-      <c r="U53" s="177"/>
-    </row>
-    <row r="54" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="57"/>
+    </row>
+    <row r="54" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B54" s="42"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="172"/>
-      <c r="L54" s="173"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="175"/>
-      <c r="P54" s="171"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
       <c r="Q54" s="41"/>
-      <c r="R54" s="176"/>
-      <c r="S54" s="176"/>
-      <c r="T54" s="176"/>
-      <c r="U54" s="177"/>
-    </row>
-    <row r="55" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="57"/>
+    </row>
+    <row r="55" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1">
       <c r="B55" s="42"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="172"/>
-      <c r="L55" s="173"/>
-      <c r="M55" s="174"/>
-      <c r="N55" s="170"/>
-      <c r="O55" s="175"/>
-      <c r="P55" s="171"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="67"/>
       <c r="Q55" s="41"/>
-      <c r="R55" s="176"/>
-      <c r="S55" s="176"/>
-      <c r="T55" s="176"/>
-      <c r="U55" s="177"/>
-    </row>
-    <row r="56" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="189" t="s">
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="57"/>
+    </row>
+    <row r="56" spans="2:21" s="39" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
+      <c r="B56" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="190"/>
-      <c r="D56" s="190"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="190" t="s">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J56" s="190"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="192"/>
-      <c r="O56" s="193"/>
-      <c r="P56" s="194" t="s">
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Q56" s="195"/>
-      <c r="R56" s="195"/>
-      <c r="S56" s="196"/>
-      <c r="T56" s="196"/>
-      <c r="U56" s="197"/>
-    </row>
-    <row r="57" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="55"/>
+    </row>
+    <row r="57" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3476,7 +3437,7 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3497,7 +3458,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3518,7 +3479,7 @@
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3539,7 +3500,7 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
     </row>
-    <row r="61" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3560,7 +3521,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3581,7 +3542,7 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3602,7 +3563,7 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
     </row>
-    <row r="64" spans="2:21" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" s="44" customFormat="1" ht="13.5">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3623,7 +3584,7 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
     </row>
-    <row r="65" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3644,7 +3605,7 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3665,7 +3626,7 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3686,7 +3647,7 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3707,7 +3668,7 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3728,7 +3689,7 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3749,7 +3710,7 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3770,7 +3731,7 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3791,7 +3752,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3812,7 +3773,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
     </row>
-    <row r="74" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3833,7 +3794,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3854,7 +3815,7 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3875,7 +3836,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3896,7 +3857,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3917,7 +3878,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
     </row>
-    <row r="79" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3938,7 +3899,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
     </row>
-    <row r="80" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3959,7 +3920,7 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
     </row>
-    <row r="81" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3980,7 +3941,7 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
     </row>
-    <row r="82" spans="2:20" s="44" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" s="44" customFormat="1" ht="13.5">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4001,7 +3962,7 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
     </row>
-    <row r="83" spans="2:20" s="46" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" s="46" customFormat="1" ht="13.5">
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45"/>
@@ -4022,7 +3983,7 @@
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
     </row>
-    <row r="84" spans="2:20" s="46" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" s="46" customFormat="1" ht="13.5">
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
@@ -4043,7 +4004,7 @@
       <c r="S84" s="45"/>
       <c r="T84" s="45"/>
     </row>
-    <row r="85" spans="2:20" s="46" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" s="46" customFormat="1" ht="13.5">
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
@@ -4064,7 +4025,7 @@
       <c r="S85" s="45"/>
       <c r="T85" s="45"/>
     </row>
-    <row r="86" spans="2:20" s="46" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" s="46" customFormat="1" ht="13.5">
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
@@ -4087,6 +4048,177 @@
     </row>
   </sheetData>
   <mergeCells count="191">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E1:S4"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="C7:T7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:U18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="B26:U26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="B22:U22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:U32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B35:U35"/>
+    <mergeCell ref="B36:U36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:U38"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="B46:U46"/>
+    <mergeCell ref="B47:U47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="G48:H49"/>
+    <mergeCell ref="I48:J49"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:U49"/>
+    <mergeCell ref="R50:U50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="I56:K56"/>
@@ -4107,177 +4239,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:M54"/>
     <mergeCell ref="N54:P54"/>
-    <mergeCell ref="R52:U52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="B46:U46"/>
-    <mergeCell ref="B47:U47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="G48:H49"/>
-    <mergeCell ref="I48:J49"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:U49"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B35:U35"/>
-    <mergeCell ref="B36:U36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:U38"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:U32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="B26:U26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="B22:U22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:U18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E1:S4"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="C7:T7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.65625" bottom="0.5625" header="0.3" footer="0.3"/>
